--- a/Proiect/Proiect_Orar_Note.xlsx
+++ b/Proiect/Proiect_Orar_Note.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011A5B1F-AA2A-47B9-86E5-727BF8282DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4020" yWindow="2415" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Ari Zeynep Melisa</t>
   </si>
@@ -91,13 +92,16 @@
   </si>
   <si>
     <t>17:30:00 PM</t>
+  </si>
+  <si>
+    <t>17:40:00 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +148,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -190,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,9 +234,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,6 +286,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -431,14 +479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.28515625" customWidth="1"/>
     <col min="2" max="4" width="15.140625" customWidth="1"/>
@@ -446,7 +494,7 @@
     <col min="6" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -469,7 +517,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -487,7 +535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -503,7 +551,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -519,7 +567,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -535,7 +583,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -551,7 +599,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -567,7 +615,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -581,9 +629,11 @@
         <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -599,7 +649,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -615,7 +665,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -631,7 +681,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -647,7 +697,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -663,7 +713,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -679,7 +729,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -695,7 +745,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -711,7 +761,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -727,7 +777,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -750,24 +800,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Proiect/Proiect_Orar_Note.xlsx
+++ b/Proiect/Proiect_Orar_Note.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011A5B1F-AA2A-47B9-86E5-727BF8282DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="2415" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="2412" windowWidth="21600" windowHeight="11832"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Ari Zeynep Melisa</t>
   </si>
@@ -95,13 +94,16 @@
   </si>
   <si>
     <t>17:40:00 PM</t>
+  </si>
+  <si>
+    <t>17:50:00 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,7 +204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,27 +236,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,24 +270,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -479,22 +445,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
-    <col min="2" max="4" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="4" width="15.109375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="7" width="18.5703125" customWidth="1"/>
+    <col min="6" max="7" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -517,7 +483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -535,7 +501,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -549,9 +515,11 @@
         <f t="shared" ref="F3:F18" si="0">(B3+E3 + C3+D3)/2 + 0.5</f>
         <v>3</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -567,7 +535,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -583,7 +551,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -599,7 +567,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -615,7 +583,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -633,7 +601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -649,7 +617,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -665,7 +633,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -681,7 +649,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -697,7 +665,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -713,7 +681,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -729,7 +697,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -745,7 +713,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -761,7 +729,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -777,7 +745,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -800,24 +768,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Proiect/Proiect_Orar_Note.xlsx
+++ b/Proiect/Proiect_Orar_Note.xlsx
@@ -449,7 +449,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -515,9 +515,7 @@
         <f t="shared" ref="F3:F18" si="0">(B3+E3 + C3+D3)/2 + 0.5</f>
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
@@ -533,7 +531,9 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">

--- a/Proiect/Proiect_Orar_Note.xlsx
+++ b/Proiect/Proiect_Orar_Note.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0243F9BF-ED25-496F-BCCE-FA5A9CAC2E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="2412" windowWidth="21600" windowHeight="11832"/>
+    <workbookView xWindow="1836" yWindow="1428" windowWidth="17244" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Ari Zeynep Melisa</t>
   </si>
@@ -97,13 +109,16 @@
   </si>
   <si>
     <t>17:50:00 PM</t>
+  </si>
+  <si>
+    <t>18:00:00 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,7 +219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,9 +251,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,6 +303,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,14 +496,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.33203125" customWidth="1"/>
     <col min="2" max="4" width="15.109375" customWidth="1"/>
@@ -460,7 +511,7 @@
     <col min="6" max="7" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -483,7 +534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -501,7 +552,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -519,7 +570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -535,7 +586,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -551,7 +602,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -567,7 +618,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -583,7 +634,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -601,7 +652,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -617,7 +668,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -633,7 +684,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -647,9 +698,11 @@
         <f t="shared" si="0"/>
         <v>5.75</v>
       </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -665,7 +718,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -681,7 +734,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -697,7 +750,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -713,7 +766,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -729,7 +782,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -745,7 +798,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -768,24 +821,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Proiect/Proiect_Orar_Note.xlsx
+++ b/Proiect/Proiect_Orar_Note.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0243F9BF-ED25-496F-BCCE-FA5A9CAC2E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE60723-0AD3-4992-A24F-99F53707D953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1836" yWindow="1428" windowWidth="17244" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Ari Zeynep Melisa</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>18:00:00 PM</t>
+  </si>
+  <si>
+    <t>18:10:00 PM</t>
   </si>
 </sst>
 </file>
@@ -177,7 +180,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Temă Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -500,18 +503,18 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="4" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="2" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="7" width="18.5546875" customWidth="1"/>
+    <col min="6" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -534,7 +537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -552,7 +555,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -570,7 +573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -586,7 +589,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -602,7 +605,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -618,7 +621,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -634,7 +637,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -652,7 +655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -668,7 +671,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -684,7 +687,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -702,7 +705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -718,7 +721,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -732,9 +735,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -750,7 +755,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -766,7 +771,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -782,7 +787,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -798,7 +803,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -826,7 +831,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -838,7 +843,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Proiect/Proiect_Orar_Note.xlsx
+++ b/Proiect/Proiect_Orar_Note.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE60723-0AD3-4992-A24F-99F53707D953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7079F250-809F-417F-83AF-C1AFB9D159B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1836" yWindow="1428" windowWidth="17244" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Ari Zeynep Melisa</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>18:10:00 PM</t>
+  </si>
+  <si>
+    <t>18:20:00 PM</t>
   </si>
 </sst>
 </file>
@@ -180,7 +183,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Temă Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -502,19 +505,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
-    <col min="2" max="4" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="4" width="15.109375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="7" width="18.5703125" customWidth="1"/>
+    <col min="6" max="7" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -537,7 +540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -555,7 +558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -573,7 +576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -589,7 +592,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -605,7 +608,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -621,7 +624,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -637,7 +640,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -655,7 +658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -671,7 +674,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -687,7 +690,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -705,7 +708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -721,7 +724,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -739,7 +742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -755,7 +758,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -771,7 +774,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -787,7 +790,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -801,9 +804,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -831,7 +836,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -843,7 +848,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Proiect/Proiect_Orar_Note.xlsx
+++ b/Proiect/Proiect_Orar_Note.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7079F250-809F-417F-83AF-C1AFB9D159B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E091FB70-3DE1-4A16-A32B-D59AAD0C232C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1836" yWindow="1428" windowWidth="17244" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Ari Zeynep Melisa</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>18:20:00 PM</t>
+  </si>
+  <si>
+    <t>18:30:00 PM</t>
   </si>
 </sst>
 </file>
@@ -505,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,7 +609,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">

--- a/Proiect/Proiect_Orar_Note.xlsx
+++ b/Proiect/Proiect_Orar_Note.xlsx
@@ -1,47 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E091FB70-3DE1-4A16-A32B-D59AAD0C232C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1836" yWindow="1428" windowWidth="17244" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23325" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>Nume</t>
+  </si>
+  <si>
+    <t>Nota prob1</t>
+  </si>
+  <si>
+    <t>Nota prob 2</t>
+  </si>
+  <si>
+    <t>Nota prob 3</t>
+  </si>
+  <si>
+    <t>Nota prob 4</t>
+  </si>
+  <si>
+    <t>Nota proiect</t>
+  </si>
+  <si>
+    <t>Orar (10 minute slot)</t>
+  </si>
   <si>
     <t>Ari Zeynep Melisa</t>
   </si>
   <si>
+    <t>17:30:00 PM</t>
+  </si>
+  <si>
     <t>Bodirlau Estera</t>
   </si>
   <si>
+    <t>17:50:00 PM</t>
+  </si>
+  <si>
     <t>Bodnariuc Anamaria-Alehandra</t>
   </si>
   <si>
     <t>Bohnsack Alexandru Walter</t>
   </si>
   <si>
+    <t>18:30:00 PM</t>
+  </si>
+  <si>
     <t>Borca Giulia-Maria</t>
   </si>
   <si>
@@ -51,6 +69,9 @@
     <t>Bosoncea Rares</t>
   </si>
   <si>
+    <t>17:40:00 PM</t>
+  </si>
+  <si>
     <t>Chesa Paul-Adrian</t>
   </si>
   <si>
@@ -60,79 +81,55 @@
     <t>Botezatu Andreea</t>
   </si>
   <si>
+    <t>18:00:00 PM</t>
+  </si>
+  <si>
     <t>Buchmann Adrian</t>
   </si>
   <si>
     <t>Bulzan Dan Alexandru</t>
   </si>
   <si>
+    <t>18:10:00 PM</t>
+  </si>
+  <si>
     <t>Bumba Andrei</t>
   </si>
   <si>
+    <t>18:40:00 PM</t>
+  </si>
+  <si>
+    <t>Burciu Adelin</t>
+  </si>
+  <si>
     <t>Cucu Ion</t>
   </si>
   <si>
     <t>Dragulescu Cristina</t>
   </si>
   <si>
+    <t>18:20:00 PM</t>
+  </si>
+  <si>
     <t>Gheorghita Dan</t>
-  </si>
-  <si>
-    <t>Burciu Adelin</t>
-  </si>
-  <si>
-    <t>Nume</t>
-  </si>
-  <si>
-    <t>Nota prob1</t>
-  </si>
-  <si>
-    <t>Nota prob 2</t>
-  </si>
-  <si>
-    <t>Nota prob 3</t>
-  </si>
-  <si>
-    <t>Nota prob 4</t>
-  </si>
-  <si>
-    <t>Nota proiect</t>
-  </si>
-  <si>
-    <t>Orar (10 minute slot)</t>
-  </si>
-  <si>
-    <t>17:30:00 PM</t>
-  </si>
-  <si>
-    <t>17:40:00 PM</t>
-  </si>
-  <si>
-    <t>17:50:00 PM</t>
-  </si>
-  <si>
-    <t>18:00:00 PM</t>
-  </si>
-  <si>
-    <t>18:10:00 PM</t>
-  </si>
-  <si>
-    <t>18:20:00 PM</t>
-  </si>
-  <si>
-    <t>18:30:00 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,19 +137,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -160,26 +494,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -228,7 +848,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,26 +881,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,23 +916,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -500,52 +1086,52 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="4" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="37.3333333333333" customWidth="1"/>
+    <col min="2" max="4" width="15.1047619047619" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="7" width="18.5546875" customWidth="1"/>
+    <col min="6" max="7" width="18.552380952381" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>9.5</v>
@@ -554,16 +1140,16 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f>(B2+E2 + C2+D2)/2 + 0.5</f>
+        <f>(B2+E2+C2+D2)/2+0.5</f>
         <v>5.75</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -572,16 +1158,16 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F18" si="0">(B3+E3 + C3+D3)/2 + 0.5</f>
+        <f t="shared" ref="F3:F18" si="0">(B3+E3+C3+D3)/2+0.5</f>
         <v>3</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -595,9 +1181,9 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -610,12 +1196,12 @@
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>4.5</v>
@@ -629,9 +1215,9 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -645,9 +1231,9 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>6.5</v>
@@ -660,12 +1246,12 @@
         <v>4.25</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -679,9 +1265,9 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -695,9 +1281,9 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>9.5</v>
@@ -710,12 +1296,12 @@
         <v>5.75</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -729,9 +1315,9 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -744,12 +1330,12 @@
         <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>8.5</v>
@@ -761,11 +1347,13 @@
         <f t="shared" si="0"/>
         <v>5.25</v>
       </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>6.5</v>
@@ -779,9 +1367,9 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -795,9 +1383,9 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -810,12 +1398,12 @@
         <v>4</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>9</v>
@@ -831,30 +1419,39 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Proiect/Proiect_Orar_Note.xlsx
+++ b/Proiect/Proiect_Orar_Note.xlsx
@@ -1,22 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeli\Documents\GitHub\TP_Laborator_1_2\Proiect\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF87C5F-9507-4E6C-91DD-BEED6FA05272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9795"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Nume</t>
   </si>
@@ -112,19 +129,16 @@
   </si>
   <si>
     <t>Gheorghita Dan</t>
+  </si>
+  <si>
+    <t>18:50:00 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,353 +154,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -494,312 +171,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1086,24 +477,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.3333333333333" customWidth="1"/>
-    <col min="2" max="4" width="15.1047619047619" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="4" width="15.109375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="7" width="18.552380952381" customWidth="1"/>
+    <col min="6" max="7" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1279,7 +670,9 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -1419,39 +812,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Proiect/Proiect_Orar_Note.xlsx
+++ b/Proiect/Proiect_Orar_Note.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeli\Documents\GitHub\TP_Laborator_1_2\Proiect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\TP_Laborator_1_2\Proiect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF87C5F-9507-4E6C-91DD-BEED6FA05272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDD07FC-F306-4453-8BE0-D9B203452B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nume</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>18:50:00 PM</t>
+  </si>
+  <si>
+    <t>19:00:00 PM</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -654,7 +657,9 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">

--- a/Proiect/Proiect_Orar_Note.xlsx
+++ b/Proiect/Proiect_Orar_Note.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\TP_Laborator_1_2\Proiect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COLOSSUS\Documents\GitHub\TP_Laborator_1_2\Proiect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDD07FC-F306-4453-8BE0-D9B203452B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747BD91C-9BF7-44D7-B41B-2BEF00EF72C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Nume</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>19:00:00 PM</t>
+  </si>
+  <si>
+    <t>19:10:00 PM</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -763,7 +766,9 @@
         <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">

--- a/Proiect/Proiect_Orar_Note.xlsx
+++ b/Proiect/Proiect_Orar_Note.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COLOSSUS\Documents\GitHub\TP_Laborator_1_2\Proiect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\TP_Laborator_1_2\Proiect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747BD91C-9BF7-44D7-B41B-2BEF00EF72C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Nume</t>
   </si>
@@ -138,12 +137,15 @@
   </si>
   <si>
     <t>19:10:00 PM</t>
+  </si>
+  <si>
+    <t>19:20:00 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -187,7 +189,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -488,11 +490,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -784,7 +786,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -827,7 +831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -839,7 +843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Proiect/Proiect_Orar_Note.xlsx
+++ b/Proiect/Proiect_Orar_Note.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\TP_Laborator_1_2\Proiect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estera\OneDrive\Documente\GitHub\TP_Laborator_1_2\Proiect\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BC0E66-3ADD-4D40-A236-47D71688C8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Nume</t>
   </si>
@@ -140,12 +141,15 @@
   </si>
   <si>
     <t>19:20:00 PM</t>
+  </si>
+  <si>
+    <t>19:30:00 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,7 +193,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -490,19 +494,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="4" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="2" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="7" width="18.5546875" customWidth="1"/>
+    <col min="6" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -561,7 +565,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -578,7 +582,9 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -831,24 +837,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Proiect/Proiect_Orar_Note.xlsx
+++ b/Proiect/Proiect_Orar_Note.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estera\OneDrive\Documente\GitHub\TP_Laborator_1_2\Proiect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rares\OneDrive\Documents\GitHub\TP_Laborator_1_2\Proiect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BC0E66-3ADD-4D40-A236-47D71688C8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Nume</t>
   </si>
@@ -149,7 +148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -494,11 +493,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -634,7 +633,9 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -837,7 +838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -849,7 +850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Proiect/Proiect_Orar_Note.xlsx
+++ b/Proiect/Proiect_Orar_Note.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Nume</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>19:30:00 PM</t>
+  </si>
+  <si>
+    <t>19:40:00 PM</t>
   </si>
 </sst>
 </file>
@@ -250,7 +253,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,7 +288,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -497,7 +500,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -634,7 +637,7 @@
         <v>3.5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/Proiect/Proiect_Orar_Note.xlsx
+++ b/Proiect/Proiect_Orar_Note.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rares\OneDrive\Documents\GitHub\TP_Laborator_1_2\Proiect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repos\TP_Laborator_1_2\Proiect\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2A2135-053F-4F91-B91B-B5EFCF25AB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Nume</t>
   </si>
@@ -100,9 +101,6 @@
     <t>18:00:00 PM</t>
   </si>
   <si>
-    <t>Buchmann Adrian</t>
-  </si>
-  <si>
     <t>Bulzan Dan Alexandru</t>
   </si>
   <si>
@@ -146,12 +144,18 @@
   </si>
   <si>
     <t>19:40:00 PM</t>
+  </si>
+  <si>
+    <t>Buchman Adrian</t>
+  </si>
+  <si>
+    <t>19:50:00 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -286,6 +290,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -321,6 +342,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -496,11 +534,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -567,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -637,7 +675,7 @@
         <v>3.5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -673,7 +711,7 @@
         <v>3.5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -691,7 +729,7 @@
         <v>4.5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -714,7 +752,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -726,11 +764,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -743,12 +783,12 @@
         <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>8.5</v>
@@ -761,12 +801,12 @@
         <v>5.25</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>6.5</v>
@@ -779,12 +819,12 @@
         <v>4.25</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -797,12 +837,12 @@
         <v>4</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -815,12 +855,12 @@
         <v>4</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>9</v>
@@ -841,7 +881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -853,7 +893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Proiect/Proiect_Orar_Note.xlsx
+++ b/Proiect/Proiect_Orar_Note.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repos\TP_Laborator_1_2\Proiect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuli\Documents\GitHub\TP_Laborator_1_2\Proiect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2A2135-053F-4F91-B91B-B5EFCF25AB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CCF2EF-4A6B-41AE-893A-1F6BECB05FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Nume</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>19:50:00 PM</t>
+  </si>
+  <si>
+    <t>20:00:00 PM</t>
   </si>
 </sst>
 </file>
@@ -215,7 +218,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Temă Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -538,15 +541,15 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
-    <col min="2" max="4" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="4" width="15.109375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="7" width="18.5703125" customWidth="1"/>
+    <col min="6" max="7" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -658,7 +661,9 @@
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -886,7 +891,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -898,7 +903,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Proiect/Proiect_Orar_Note.xlsx
+++ b/Proiect/Proiect_Orar_Note.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuli\Documents\GitHub\TP_Laborator_1_2\Proiect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rares\OneDrive\Documents\GitHub\TP_Laborator_1_2\Proiect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CCF2EF-4A6B-41AE-893A-1F6BECB05FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Nume</t>
   </si>
@@ -153,12 +152,15 @@
   </si>
   <si>
     <t>20:00:00 PM</t>
+  </si>
+  <si>
+    <t>20:10:00 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -218,7 +220,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Temă Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -293,23 +295,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -345,23 +330,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -537,19 +505,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="4" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="2" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="7" width="18.5546875" customWidth="1"/>
+    <col min="6" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -595,20 +563,20 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F18" si="0">(B3+E3+C3+D3)/2+0.5</f>
-        <v>3</v>
+        <f>(B3+E3+C3+D3)/2+0.5</f>
+        <v>4.25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -622,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f>(B4+E4+C4+D4)/2+0.5</f>
         <v>3.5</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -631,92 +599,92 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>(B5+E5+C5+D5)/2+0.5</f>
+        <v>5.75</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B6">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>3.25</v>
+        <f>(B6+E6+C6+D6)/2+0.5</f>
+        <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
+        <f>(B7+E7+C7+D7)/2+0.5</f>
+        <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>4.25</v>
+        <f>(B8+E8+C8+D8)/2+0.5</f>
+        <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
+        <f>(B9+E9+C9+D9)/2+0.5</f>
+        <v>5.25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -730,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f>(B10+E10+C10+D10)/2+0.5</f>
         <v>4.5</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -739,128 +707,128 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>5.75</v>
+        <f>(B11+E11+C11+D11)/2+0.5</f>
+        <v>3.5</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>(B12+E12+C12+D12)/2+0.5</f>
+        <v>4.25</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>(B13+E13+C13+D13)/2+0.5</f>
+        <v>4</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>5.25</v>
+        <f>(B14+E14+C14+D14)/2+0.5</f>
+        <v>3</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>4.25</v>
+        <f>(B15+E15+C15+D15)/2+0.5</f>
+        <v>3.5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f>(B16+E16+C16+D16)/2+0.5</f>
         <v>6</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>(B17+E17+C17+D17)/2+0.5</f>
+        <v>3.25</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -874,36 +842,41 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f>(B18+E18+C18+D18)/2+0.5</f>
         <v>5.5</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G18">
+    <sortCondition ref="G2:G18"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
